--- a/detailed_channel_info/KCNH6_RAT.xlsx
+++ b/detailed_channel_info/KCNH6_RAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>http://channelpedia.epfl.ch/ionchannels/36</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,32 +692,32 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
